--- a/all/Favorite_Story.xlsx
+++ b/all/Favorite_Story.xlsx
@@ -469,13 +469,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C3" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D3" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/all/Favorite_Story.xlsx
+++ b/all/Favorite_Story.xlsx
@@ -469,13 +469,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="n">
         <v>32</v>
       </c>
       <c r="D3" t="n">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
